--- a/Result30.xlsx
+++ b/Result30.xlsx
@@ -34,6 +34,7 @@
     <definedName name="get_latencies" localSheetId="9">'Throughput-30'!$A$2:$M$33</definedName>
     <definedName name="get_latencies" localSheetId="7">'Throughput-60'!$A$2:$M$33</definedName>
     <definedName name="get_latencies" localSheetId="6">'Throughput-90'!$A$2:$O$33</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="summary_1" localSheetId="0">a!$A$1:$E$62</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -184,7 +185,7 @@
     </textPr>
   </connection>
   <connection id="9" name="summary" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="D:\GIT_REPO\riak_results\6-cli\ord-service\172.31.0.202-1457226507\summary.csv" comma="1">
+    <textPr codePage="437" sourceFile="D:\GIT_REPO\riak_results\6-cli\original-riak\172.31.0.201-1457290361\summary.csv" comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -198,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="46">
   <si>
     <t>elapsed</t>
   </si>
@@ -331,6 +332,12 @@
   <si>
     <t>Successful-OS-180</t>
   </si>
+  <si>
+    <t>RiakOriginal</t>
+  </si>
+  <si>
+    <t>Successful-RIAK</t>
+  </si>
 </sst>
 </file>
 
@@ -377,8 +384,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -994,11 +1029,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="751823792"/>
-        <c:axId val="751819312"/>
+        <c:axId val="598894624"/>
+        <c:axId val="598895184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="751823792"/>
+        <c:axId val="598894624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1041,7 +1076,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="751819312"/>
+        <c:crossAx val="598895184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1049,7 +1084,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="751819312"/>
+        <c:axId val="598895184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1100,7 +1135,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="751823792"/>
+        <c:crossAx val="598894624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2824,11 +2859,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="849608816"/>
-        <c:axId val="849609376"/>
+        <c:axId val="601679488"/>
+        <c:axId val="601680048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="849608816"/>
+        <c:axId val="601679488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2871,7 +2906,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="849609376"/>
+        <c:crossAx val="601680048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2879,7 +2914,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="849609376"/>
+        <c:axId val="601680048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2930,7 +2965,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="849608816"/>
+        <c:crossAx val="601679488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3032,259 +3067,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Throughput-30'!$B$2</c:f>
+              <c:f>Comparison!$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Successful-OP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Throughput-30'!$A$3:$A$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>10.000496999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.001588000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.005147999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40.000557000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50.001725</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60.001565999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70.008729000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80.008661000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90.005540999999994</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100.00461</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110.001514</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120.00539000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130.00049100000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140.001845</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150.001484</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160.001487</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170.001621</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180.00452100000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>190.00151199999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200.001668</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>210.00154499999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>220.001712</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>230.00854000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>240.009174</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>250.00055900000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>260.00156399999997</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>270.00164699999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>280.00151299999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>290.00153799999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>300.00851299999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>301.02942300000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Throughput-30'!$B$3:$B$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>8629</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9203</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8822</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6629</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8027</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7664</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7045</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7048</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6821</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6499</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6191</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6744</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6668</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6545</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6315</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6084</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6405</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6130</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5641</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6348</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6399</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4281</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6278</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6211</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6175</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6260</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6291</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6360</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6190</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>620</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Throughput-30'!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Successful-OLD</c:v>
+                  <c:v>Successful-OLD-180</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3299,236 +3090,229 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Throughput-30'!$A$3:$A$33</c:f>
+              <c:f>Comparison!$L$4:$L$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>10.000496999999999</c:v>
+                  <c:v>30624</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.001588000000002</c:v>
+                  <c:v>26179</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.005147999999998</c:v>
+                  <c:v>23236</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.000557000000001</c:v>
+                  <c:v>18050</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.001725</c:v>
+                  <c:v>25016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.001565999999997</c:v>
+                  <c:v>23768</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70.008729000000002</c:v>
+                  <c:v>19175</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.008661000000004</c:v>
+                  <c:v>24247</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.005540999999994</c:v>
+                  <c:v>22377</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100.00461</c:v>
+                  <c:v>19433</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>110.001514</c:v>
+                  <c:v>22766</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120.00539000000001</c:v>
+                  <c:v>23331</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>130.00049100000001</c:v>
+                  <c:v>20541</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>140.001845</c:v>
+                  <c:v>19886</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>150.001484</c:v>
+                  <c:v>22918</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>160.001487</c:v>
+                  <c:v>21474</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>170.001621</c:v>
+                  <c:v>19127</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>180.00452100000001</c:v>
+                  <c:v>23183</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>190.00151199999999</c:v>
+                  <c:v>22475</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>200.001668</c:v>
+                  <c:v>18670</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>210.00154499999999</c:v>
+                  <c:v>23421</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>220.001712</c:v>
+                  <c:v>22305</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>230.00854000000001</c:v>
+                  <c:v>19971</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>240.009174</c:v>
+                  <c:v>20138</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>250.00055900000001</c:v>
+                  <c:v>22364</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>260.00156399999997</c:v>
+                  <c:v>20411</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>270.00164699999999</c:v>
+                  <c:v>19204</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>280.00151299999999</c:v>
+                  <c:v>22852</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>290.00153799999998</c:v>
+                  <c:v>20232</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>300.00851299999999</c:v>
+                  <c:v>19006</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>301.02942300000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Throughput-30'!$G$3:$G$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>13394</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15327</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14825</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6728</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14358</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13878</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6402</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12598</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13754</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9051</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12011</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13152</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10046</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11308</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12742</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10365</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11913</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13141</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10758</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10927</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11664</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11172</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>10331</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11782</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10870</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10386</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10937</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>11126</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>10623</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>11889</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1630</c:v>
+                  <c:v>22237</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20689</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20925</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19802</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21924</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19597</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>19268</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21300</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19372</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19546</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>21730</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21882</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20304</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19215</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21781</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18668</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20066</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>22188</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19523</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>18249</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>21759</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20452</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>19286</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>20296</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>21074</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19708</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>18707</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>21354</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19541</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>24808</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Comparison!$U$12:$W$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Throughput-30'!$L$2</c:f>
+              <c:f>Comparison!$S$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Successful-OS</c:v>
+                  <c:v>Successful-OS-180</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3543,220 +3327,196 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Throughput-30'!$A$3:$A$33</c:f>
+              <c:f>Comparison!$S$4:$S$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>10.000496999999999</c:v>
+                  <c:v>51549</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.001588000000002</c:v>
+                  <c:v>48916</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.005147999999998</c:v>
+                  <c:v>43546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.000557000000001</c:v>
+                  <c:v>27703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.001725</c:v>
+                  <c:v>48893</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.001565999999997</c:v>
+                  <c:v>45941</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70.008729000000002</c:v>
+                  <c:v>22112</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.008661000000004</c:v>
+                  <c:v>45439</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.005540999999994</c:v>
+                  <c:v>46040</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100.00461</c:v>
+                  <c:v>27827</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>110.001514</c:v>
+                  <c:v>37370</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120.00539000000001</c:v>
+                  <c:v>45846</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>130.00049100000001</c:v>
+                  <c:v>36049</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>140.001845</c:v>
+                  <c:v>35285</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>150.001484</c:v>
+                  <c:v>45457</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>160.001487</c:v>
+                  <c:v>34337</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>170.001621</c:v>
+                  <c:v>29920</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>180.00452100000001</c:v>
+                  <c:v>44282</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>190.00151199999999</c:v>
+                  <c:v>37702</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>200.001668</c:v>
+                  <c:v>36841</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>210.00154499999999</c:v>
+                  <c:v>33822</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>220.001712</c:v>
+                  <c:v>41233</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>230.00854000000001</c:v>
+                  <c:v>38856</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>240.009174</c:v>
+                  <c:v>42483</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>250.00055900000001</c:v>
+                  <c:v>41568</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>260.00156399999997</c:v>
+                  <c:v>33698</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>270.00164699999999</c:v>
+                  <c:v>43930</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>280.00151299999999</c:v>
+                  <c:v>41627</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>290.00153799999998</c:v>
+                  <c:v>32774</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>300.00851299999999</c:v>
+                  <c:v>42733</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>301.02942300000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Throughput-30'!$L$3:$L$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>15170</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17737</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17027</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13109</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15789</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15913</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13185</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14754</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15837</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13321</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13866</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15105</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14635</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13382</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>13863</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14697</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12886</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>14126</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14799</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14426</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>13357</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11989</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>14772</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>13686</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>14676</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>14629</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>13958</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>13926</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>14070</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>14145</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1081</c:v>
+                  <c:v>43225</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31486</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42073</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42618</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>37083</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42247</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42392</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>35669</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40874</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45656</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>36601</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>37192</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43480</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>36566</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>37101</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44559</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41277</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>35034</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43511</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41650</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>33222</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42879</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43338</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>33194</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43290</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45053</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>35999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41258</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43032</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>38178</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3771,19 +3531,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="648694064"/>
-        <c:axId val="648692384"/>
+        <c:axId val="783355392"/>
+        <c:axId val="657577632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="648694064"/>
+        <c:axId val="783355392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3820,7 +3578,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="648692384"/>
+        <c:crossAx val="657577632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3828,7 +3586,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="648692384"/>
+        <c:axId val="657577632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3879,7 +3637,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="648694064"/>
+        <c:crossAx val="783355392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3892,7 +3650,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3981,15 +3739,503 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'latency mean'!$E$2</c:f>
+              <c:f>'Throughput-30'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average-Op</c:v>
+                  <c:v>Successful-OP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Throughput-30'!$A$3:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>10.000496999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.001588000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.005147999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.000557000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.001725</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.001565999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.008729000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.008661000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.005540999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100.00461</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110.001514</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120.00539000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130.00049100000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140.001845</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150.001484</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160.001487</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170.001621</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180.00452100000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190.00151199999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200.001668</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210.00154499999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220.001712</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230.00854000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240.009174</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250.00055900000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260.00156399999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270.00164699999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280.00151299999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290.00153799999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300.00851299999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>301.02942300000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Throughput-30'!$B$3:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>8629</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8822</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6629</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8027</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6821</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6499</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6191</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6744</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6668</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6545</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6315</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6084</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6405</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6130</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5641</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6348</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6399</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4281</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6278</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6211</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6175</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6291</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6360</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6190</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>620</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Throughput-30'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Successful-OLD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Throughput-30'!$A$3:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>10.000496999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.001588000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.005147999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.000557000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.001725</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.001565999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.008729000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.008661000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.005540999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100.00461</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110.001514</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120.00539000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130.00049100000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140.001845</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150.001484</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160.001487</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170.001621</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180.00452100000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190.00151199999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200.001668</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210.00154499999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220.001712</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230.00854000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240.009174</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250.00055900000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260.00156399999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270.00164699999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280.00151299999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290.00153799999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300.00851299999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>301.02942300000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Throughput-30'!$G$3:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>13394</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15327</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14825</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6728</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14358</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13878</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13754</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9051</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10046</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11308</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12742</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10365</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11913</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13141</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10758</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10927</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11664</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11172</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10331</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11782</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10870</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10386</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10937</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11126</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10623</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11889</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1630</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Throughput-30'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Successful-OS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4020,7 +4266,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'latency mean'!$A$3:$A$33</c:f>
+              <c:f>'Throughput-30'!$A$3:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -4122,433 +4368,103 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'latency mean'!$E$3:$E$33</c:f>
+              <c:f>'Throughput-30'!$L$3:$L$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>35029.73333333333</c:v>
+                  <c:v>15170</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32819.666666666664</c:v>
+                  <c:v>17737</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34307.833333333336</c:v>
+                  <c:v>17027</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44020.433333333327</c:v>
+                  <c:v>13109</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37768.799999999996</c:v>
+                  <c:v>15789</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38929.299999999996</c:v>
+                  <c:v>15913</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42962.866666666669</c:v>
+                  <c:v>13185</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42149.1</c:v>
+                  <c:v>14754</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43358.466666666667</c:v>
+                  <c:v>15837</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46777.633333333331</c:v>
+                  <c:v>13321</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48138.466666666667</c:v>
+                  <c:v>13866</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44596.366666666669</c:v>
+                  <c:v>15105</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42580.6</c:v>
+                  <c:v>14635</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48192.4</c:v>
+                  <c:v>13382</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45572.26666666667</c:v>
+                  <c:v>13863</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45101.866666666669</c:v>
+                  <c:v>14697</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>49502.966666666667</c:v>
+                  <c:v>12886</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>47222.066666666673</c:v>
+                  <c:v>14126</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>48836.766666666663</c:v>
+                  <c:v>14799</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>52978.400000000001</c:v>
+                  <c:v>14426</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>47154.533333333333</c:v>
+                  <c:v>13357</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>46990.400000000001</c:v>
+                  <c:v>11989</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>69473.266666666663</c:v>
+                  <c:v>14772</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>48060.866666666669</c:v>
+                  <c:v>13686</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>48226.400000000001</c:v>
+                  <c:v>14676</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>48849.933333333342</c:v>
+                  <c:v>14629</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>47699.733333333337</c:v>
+                  <c:v>13958</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>47331.333333333336</c:v>
+                  <c:v>13926</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>47549.599999999999</c:v>
+                  <c:v>14070</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>48647.80000000001</c:v>
+                  <c:v>14145</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>47400.80000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'latency mean'!$J$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average-Old</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'latency mean'!$J$3:$J$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>22377.866666666669</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19548.566666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20132.733333333334</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40699.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21036.399999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21574.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36815.23333333333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27613.266666666663</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21844.766666666666</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>29461.066666666666</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27056</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23004.333333333332</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>27612.433333333331</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28062</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>23614.166666666668</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>28580</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25821.7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>23128.566666666666</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>27011.933333333334</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>28381.066666666669</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>25658.066666666669</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>26422.7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>29662.433333333331</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>25437.366666666669</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>27282.066666666666</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>29060.733333333334</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>28224.466666666664</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>26868.400000000005</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28063.566666666666</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>25815.166666666668</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>24637.133333333331</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'latency mean'!$O$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average-OS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'latency mean'!$O$3:$O$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>19846.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16825.066666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17619.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22619.200000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19029.233333333334</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18794.333333333332</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22066.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20582.966666666667</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19009.433333333334</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22400.266666666666</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23005.7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>19828.133333333335</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20502.566666666669</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21916.100000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21840.7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20423.466666666667</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>22992.866666666669</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>21213.033333333333</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20228.833333333332</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20701.8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22463.133333333331</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>25002.466666666664</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>20320.8</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>21630.3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>20453.099999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>20407.2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>21320.133333333331</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>21586.7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>21261.7</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>21190.7</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>21863.166666666668</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'latency mean'!$T$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'latency mean'!$T$3:$T$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                  <c:v>1081</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4564,11 +4480,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="791299328"/>
-        <c:axId val="791308288"/>
+        <c:axId val="602663888"/>
+        <c:axId val="602664448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="791299328"/>
+        <c:axId val="602663888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4611,7 +4527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="791308288"/>
+        <c:crossAx val="602664448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4619,7 +4535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="791308288"/>
+        <c:axId val="602664448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4670,7 +4586,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="791299328"/>
+        <c:crossAx val="602663888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4684,7 +4600,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4772,503 +4687,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Throughput-30'!$B$2</c:f>
+              <c:f>'latency mean'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Successful-OP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Throughput-30'!$A$3:$A$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>10.000496999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.001588000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.005147999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40.000557000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50.001725</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60.001565999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70.008729000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80.008661000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90.005540999999994</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100.00461</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110.001514</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120.00539000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130.00049100000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140.001845</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150.001484</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160.001487</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170.001621</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180.00452100000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>190.00151199999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200.001668</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>210.00154499999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>220.001712</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>230.00854000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>240.009174</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>250.00055900000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>260.00156399999997</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>270.00164699999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>280.00151299999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>290.00153799999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>300.00851299999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>301.02942300000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Throughput-30'!$B$3:$B$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>8629</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9203</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8822</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6629</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8027</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7664</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7045</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7048</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6821</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6499</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6191</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6744</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6668</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6545</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6315</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6084</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6405</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6130</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5641</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6348</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6399</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4281</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6278</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6211</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6175</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6260</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6291</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6360</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6190</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>620</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Throughput-30'!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Successful-OLD</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Throughput-30'!$A$3:$A$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>10.000496999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.001588000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.005147999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40.000557000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50.001725</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60.001565999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70.008729000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80.008661000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90.005540999999994</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100.00461</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110.001514</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120.00539000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130.00049100000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140.001845</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150.001484</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160.001487</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170.001621</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180.00452100000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>190.00151199999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200.001668</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>210.00154499999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>220.001712</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>230.00854000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>240.009174</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>250.00055900000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>260.00156399999997</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>270.00164699999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>280.00151299999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>290.00153799999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>300.00851299999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>301.02942300000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Throughput-30'!$G$3:$G$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>13394</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15327</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14825</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6728</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14358</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13878</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6402</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12598</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13754</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9051</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12011</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13152</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10046</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11308</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12742</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10365</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11913</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13141</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10758</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10927</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11664</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11172</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>10331</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11782</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10870</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10386</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10937</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>11126</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>10623</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>11889</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1630</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Throughput-30'!$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Successful-OS</c:v>
+                  <c:v>Average-Op</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5299,7 +4726,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Throughput-30'!$A$3:$A$33</c:f>
+              <c:f>'latency mean'!$A$3:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -5401,103 +4828,433 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Throughput-30'!$L$3:$L$33</c:f>
+              <c:f>'latency mean'!$E$3:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>15170</c:v>
+                  <c:v>35029.73333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17737</c:v>
+                  <c:v>32819.666666666664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17027</c:v>
+                  <c:v>34307.833333333336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13109</c:v>
+                  <c:v>44020.433333333327</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15789</c:v>
+                  <c:v>37768.799999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15913</c:v>
+                  <c:v>38929.299999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13185</c:v>
+                  <c:v>42962.866666666669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14754</c:v>
+                  <c:v>42149.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15837</c:v>
+                  <c:v>43358.466666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13321</c:v>
+                  <c:v>46777.633333333331</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13866</c:v>
+                  <c:v>48138.466666666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15105</c:v>
+                  <c:v>44596.366666666669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14635</c:v>
+                  <c:v>42580.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13382</c:v>
+                  <c:v>48192.4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13863</c:v>
+                  <c:v>45572.26666666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14697</c:v>
+                  <c:v>45101.866666666669</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12886</c:v>
+                  <c:v>49502.966666666667</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14126</c:v>
+                  <c:v>47222.066666666673</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14799</c:v>
+                  <c:v>48836.766666666663</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14426</c:v>
+                  <c:v>52978.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13357</c:v>
+                  <c:v>47154.533333333333</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11989</c:v>
+                  <c:v>46990.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14772</c:v>
+                  <c:v>69473.266666666663</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>13686</c:v>
+                  <c:v>48060.866666666669</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14676</c:v>
+                  <c:v>48226.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>14629</c:v>
+                  <c:v>48849.933333333342</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13958</c:v>
+                  <c:v>47699.733333333337</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13926</c:v>
+                  <c:v>47331.333333333336</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14070</c:v>
+                  <c:v>47549.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14145</c:v>
+                  <c:v>48647.80000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1081</c:v>
-                </c:pt>
+                  <c:v>47400.80000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'latency mean'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average-Old</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'latency mean'!$J$3:$J$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>22377.866666666669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19548.566666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20132.733333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40699.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21036.399999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21574.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36815.23333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27613.266666666663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21844.766666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29461.066666666666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27056</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23004.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27612.433333333331</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28062</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23614.166666666668</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28580</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25821.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23128.566666666666</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27011.933333333334</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28381.066666666669</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25658.066666666669</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26422.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29662.433333333331</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25437.366666666669</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27282.066666666666</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29060.733333333334</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28224.466666666664</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>26868.400000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28063.566666666666</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25815.166666666668</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24637.133333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'latency mean'!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average-OS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'latency mean'!$O$3:$O$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>19846.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16825.066666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17619.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22619.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19029.233333333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18794.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22066.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20582.966666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19009.433333333334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22400.266666666666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23005.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19828.133333333335</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20502.566666666669</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21916.100000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21840.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20423.466666666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22992.866666666669</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21213.033333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20228.833333333332</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20701.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22463.133333333331</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25002.466666666664</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20320.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21630.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20453.099999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20407.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21320.133333333331</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21586.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21261.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21190.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21863.166666666668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'latency mean'!$T$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'latency mean'!$T$3:$T$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5513,11 +5270,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="752353120"/>
-        <c:axId val="752368800"/>
+        <c:axId val="602501056"/>
+        <c:axId val="602501616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="752353120"/>
+        <c:axId val="602501056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5560,7 +5317,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="752368800"/>
+        <c:crossAx val="602501616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5568,7 +5325,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="752368800"/>
+        <c:axId val="602501616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5619,7 +5376,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="752353120"/>
+        <c:crossAx val="602501056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5633,7 +5390,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5714,37 +5470,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -5752,15 +5477,259 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>SYNC!$E$3</c:f>
+              <c:f>'Throughput-30'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average</c:v>
+                  <c:v>Successful-OP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Throughput-30'!$A$3:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>10.000496999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.001588000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.005147999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.000557000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.001725</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.001565999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.008729000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.008661000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.005540999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100.00461</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110.001514</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120.00539000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130.00049100000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140.001845</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150.001484</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160.001487</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170.001621</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180.00452100000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190.00151199999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200.001668</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210.00154499999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220.001712</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230.00854000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240.009174</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250.00055900000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260.00156399999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270.00164699999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280.00151299999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290.00153799999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300.00851299999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>301.02942300000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Throughput-30'!$B$3:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>8629</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8822</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6629</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8027</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6821</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6499</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6191</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6744</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6668</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6545</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6315</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6084</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6405</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6130</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5641</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6348</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6399</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4281</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6278</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6211</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6175</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6291</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6360</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6190</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>620</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Throughput-30'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Successful-OLD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5775,208 +5744,464 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>SYNC!$A$4:$A$34</c:f>
+              <c:f>'Throughput-30'!$A$3:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>10.000481000000001</c:v>
+                  <c:v>10.000496999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.001508000000001</c:v>
+                  <c:v>20.001588000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.001521</c:v>
+                  <c:v>30.005147999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.001471000000002</c:v>
+                  <c:v>40.000557000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.001514999999998</c:v>
+                  <c:v>50.001725</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.001524000000003</c:v>
+                  <c:v>60.001565999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70.002527000000001</c:v>
+                  <c:v>70.008729000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.005561999999998</c:v>
+                  <c:v>80.008661000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.004525000000001</c:v>
+                  <c:v>90.005540999999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100.00353</c:v>
+                  <c:v>100.00461</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>110.004526</c:v>
+                  <c:v>110.001514</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120.00368400000001</c:v>
+                  <c:v>120.00539000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>130.00357600000001</c:v>
+                  <c:v>130.00049100000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>140.00453200000001</c:v>
+                  <c:v>140.001845</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>150.003477</c:v>
+                  <c:v>150.001484</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>160.00156100000001</c:v>
+                  <c:v>160.001487</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>170.00146899999999</c:v>
+                  <c:v>170.001621</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>180.001631</c:v>
+                  <c:v>180.00452100000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>190.00165100000001</c:v>
+                  <c:v>190.00151199999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>200.001518</c:v>
+                  <c:v>200.001668</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>210.00147100000001</c:v>
+                  <c:v>210.00154499999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>220.00147699999999</c:v>
+                  <c:v>220.001712</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>230.00151600000001</c:v>
+                  <c:v>230.00854000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>240.00249299999999</c:v>
+                  <c:v>240.009174</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>250.00150099999999</c:v>
+                  <c:v>250.00055900000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>260.00155899999999</c:v>
+                  <c:v>260.00156399999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>270.00147099999998</c:v>
+                  <c:v>270.00164699999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>280.00147199999998</c:v>
+                  <c:v>280.00151299999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>290.00172099999997</c:v>
+                  <c:v>290.00153799999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>300.00146699999999</c:v>
+                  <c:v>300.00851299999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>301.01765999999998</c:v>
+                  <c:v>301.02942300000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SYNC!$E$4:$E$34</c:f>
+              <c:f>'Throughput-30'!$G$3:$G$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>103726</c:v>
+                  <c:v>13394</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23735</c:v>
+                  <c:v>15327</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21515</c:v>
+                  <c:v>14825</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22638.666666666668</c:v>
+                  <c:v>6728</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22610</c:v>
+                  <c:v>14358</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48161.333333333336</c:v>
+                  <c:v>13878</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30568.666666666668</c:v>
+                  <c:v>6402</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70773.333333333328</c:v>
+                  <c:v>12598</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24599.666666666668</c:v>
+                  <c:v>13754</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22870.666666666668</c:v>
+                  <c:v>9051</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60749</c:v>
+                  <c:v>12011</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31609.666666666668</c:v>
+                  <c:v>13152</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31439</c:v>
+                  <c:v>10046</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>57666</c:v>
+                  <c:v>11308</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>100417</c:v>
+                  <c:v>12742</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23915.333333333332</c:v>
+                  <c:v>10365</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40473.666666666664</c:v>
+                  <c:v>11913</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33926</c:v>
+                  <c:v>13141</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26899</c:v>
+                  <c:v>10758</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26573</c:v>
+                  <c:v>10927</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>91434</c:v>
+                  <c:v>11664</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>59472.666666666664</c:v>
+                  <c:v>11172</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>53550</c:v>
+                  <c:v>10331</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>89025.666666666672</c:v>
+                  <c:v>11782</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>87946.333333333328</c:v>
+                  <c:v>10870</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>32996</c:v>
+                  <c:v>10386</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30678.333333333332</c:v>
+                  <c:v>10937</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>36665.333333333336</c:v>
+                  <c:v>11126</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>68355</c:v>
+                  <c:v>10623</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>60843</c:v>
+                  <c:v>11889</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>60493.666666666664</c:v>
+                  <c:v>1630</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Throughput-30'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Successful-OS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Throughput-30'!$A$3:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>10.000496999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.001588000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.005147999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.000557000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.001725</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.001565999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.008729000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.008661000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.005540999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100.00461</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110.001514</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120.00539000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130.00049100000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140.001845</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150.001484</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160.001487</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170.001621</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180.00452100000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190.00151199999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200.001668</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210.00154499999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220.001712</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230.00854000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240.009174</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250.00055900000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260.00156399999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270.00164699999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280.00151299999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290.00153799999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300.00851299999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>301.02942300000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Throughput-30'!$L$3:$L$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>15170</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17737</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17027</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15789</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15913</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13185</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14754</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15837</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13321</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13866</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15105</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14635</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13382</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13863</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14697</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12886</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14126</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14799</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14426</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13357</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11989</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14772</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13686</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14676</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14629</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13958</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13926</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14070</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5991,12 +6216,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="743017248"/>
-        <c:axId val="743017808"/>
+        <c:axId val="602505536"/>
+        <c:axId val="602506096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="743017248"/>
+        <c:axId val="602505536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6039,7 +6265,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="743017808"/>
+        <c:crossAx val="602506096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6047,7 +6273,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="743017808"/>
+        <c:axId val="602506096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6098,7 +6324,484 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="743017248"/>
+        <c:crossAx val="602505536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SYNC!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SYNC!$A$4:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>10.000481000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.001508000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.001521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.001471000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.001514999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.001524000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.002527000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.005561999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.004525000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100.00353</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110.004526</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120.00368400000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130.00357600000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140.00453200000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150.003477</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160.00156100000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170.00146899999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180.001631</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190.00165100000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200.001518</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210.00147100000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220.00147699999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230.00151600000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240.00249299999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250.00150099999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260.00155899999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270.00147099999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280.00147199999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290.00172099999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300.00146699999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>301.01765999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SYNC!$E$4:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>103726</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23735</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21515</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22638.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22610</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48161.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30568.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70773.333333333328</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24599.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22870.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60749</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31609.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31439</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57666</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100417</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23915.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40473.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33926</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26899</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26573</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>91434</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>59472.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>53550</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>89025.666666666672</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>87946.333333333328</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>30678.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36665.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>68355</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60843</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60493.666666666664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="602508896"/>
+        <c:axId val="602509456"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="602508896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="602509456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="602509456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="602508896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6112,7 +6815,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6783,11 +7485,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="745538176"/>
-        <c:axId val="745538736"/>
+        <c:axId val="600109200"/>
+        <c:axId val="600109760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="745538176"/>
+        <c:axId val="600109200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6830,7 +7532,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="745538736"/>
+        <c:crossAx val="600109760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6838,7 +7540,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="745538736"/>
+        <c:axId val="600109760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6889,7 +7591,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="745538176"/>
+        <c:crossAx val="600109200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7878,6 +8580,238 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Throughput-180'!$AG$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Successful-RIAK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Throughput-180'!$AG$3:$AG$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>30454</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28821</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25514</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15892</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27339</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16572</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16646</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27194</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22573</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16463</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23980</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24845</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20802</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19736</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24883</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22868</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22566</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25433</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16174</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22447</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22460</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24693</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23136</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22926</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23993</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24467</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20597</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24479</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24934</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21617</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>23379</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25713</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24271</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>23783</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25551</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>22285</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20909</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>26052</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>24109</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22830</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>25837</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25108</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21840</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23703</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>24846</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>21464</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20765</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25435</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>23157</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>23615</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>25168</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>22217</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>21685</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>22825</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>22764</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>22470</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>23581</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -7888,11 +8822,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="851986896"/>
-        <c:axId val="793997792"/>
+        <c:axId val="600114800"/>
+        <c:axId val="600115360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="851986896"/>
+        <c:axId val="600114800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7935,7 +8869,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="793997792"/>
+        <c:crossAx val="600115360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7943,7 +8877,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="793997792"/>
+        <c:axId val="600115360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7994,7 +8928,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="851986896"/>
+        <c:crossAx val="600114800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8993,11 +9927,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="852781952"/>
-        <c:axId val="852782512"/>
+        <c:axId val="600120400"/>
+        <c:axId val="600120960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="852781952"/>
+        <c:axId val="600120400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9040,7 +9974,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="852782512"/>
+        <c:crossAx val="600120960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9048,7 +9982,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="852782512"/>
+        <c:axId val="600120960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9099,7 +10033,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="852781952"/>
+        <c:crossAx val="600120400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9113,7 +10047,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10098,11 +11031,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="791435936"/>
-        <c:axId val="791433136"/>
+        <c:axId val="600993008"/>
+        <c:axId val="600993568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="791435936"/>
+        <c:axId val="600993008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10145,7 +11078,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="791433136"/>
+        <c:crossAx val="600993568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10153,7 +11086,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="791433136"/>
+        <c:axId val="600993568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10204,7 +11137,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="791435936"/>
+        <c:crossAx val="600993008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10218,7 +11151,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11203,11 +12135,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="789586800"/>
-        <c:axId val="789573360"/>
+        <c:axId val="600998608"/>
+        <c:axId val="600999168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="789586800"/>
+        <c:axId val="600998608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11250,7 +12182,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="789573360"/>
+        <c:crossAx val="600999168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11258,7 +12190,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="789573360"/>
+        <c:axId val="600999168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11309,7 +12241,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="789586800"/>
+        <c:crossAx val="600998608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12308,11 +13240,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="747885648"/>
-        <c:axId val="747889008"/>
+        <c:axId val="601004208"/>
+        <c:axId val="601004768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="747885648"/>
+        <c:axId val="601004208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12355,7 +13287,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="747889008"/>
+        <c:crossAx val="601004768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12363,7 +13295,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="747889008"/>
+        <c:axId val="601004768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12414,7 +13346,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="747885648"/>
+        <c:crossAx val="601004208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12428,7 +13360,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12511,7 +13442,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.6657794536246348E-2"/>
+          <c:y val="3.2407407407407406E-2"/>
+          <c:w val="0.8720926816174922"/>
+          <c:h val="0.7147889326334208"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -14138,11 +15079,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="752362080"/>
-        <c:axId val="752352000"/>
+        <c:axId val="601669408"/>
+        <c:axId val="601669968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="752362080"/>
+        <c:axId val="601669408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14185,7 +15126,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="752352000"/>
+        <c:crossAx val="601669968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14193,7 +15134,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="752352000"/>
+        <c:axId val="601669968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14244,7 +15185,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="752362080"/>
+        <c:crossAx val="601669408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14896,11 +15837,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="780068496"/>
-        <c:axId val="780069616"/>
+        <c:axId val="601673328"/>
+        <c:axId val="601673888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="780068496"/>
+        <c:axId val="601673328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14943,7 +15884,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="780069616"/>
+        <c:crossAx val="601673888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14951,7 +15892,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="780069616"/>
+        <c:axId val="601673888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15002,7 +15943,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="780068496"/>
+        <c:crossAx val="601673328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15284,6 +16225,46 @@
 </file>
 
 <file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -18224,6 +19205,522 @@
 </file>
 
 <file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -23240,8 +24737,8 @@
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
@@ -23302,8 +24799,8 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -23321,6 +24818,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -23665,7 +25192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D62"/>
     </sheetView>
   </sheetViews>
@@ -23710,16 +25237,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>10.001421000000001</v>
+        <v>10.000862</v>
       </c>
       <c r="B2">
-        <v>10.001421000000001</v>
+        <v>10.000862</v>
       </c>
       <c r="C2">
-        <v>8176</v>
+        <v>4716</v>
       </c>
       <c r="D2">
-        <v>8176</v>
+        <v>4716</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -23727,16 +25254,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>20.003395000000001</v>
+        <v>20.001674000000001</v>
       </c>
       <c r="B3">
-        <v>10.001974000000001</v>
+        <v>10.000812</v>
       </c>
       <c r="C3">
-        <v>7916</v>
+        <v>4668</v>
       </c>
       <c r="D3">
-        <v>7916</v>
+        <v>4668</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -23744,16 +25271,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>30.001116</v>
+        <v>30.001843999999998</v>
       </c>
       <c r="B4">
-        <v>9.9977210000000003</v>
+        <v>10.000170000000001</v>
       </c>
       <c r="C4">
-        <v>5692</v>
+        <v>3585</v>
       </c>
       <c r="D4">
-        <v>5692</v>
+        <v>3585</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -23761,16 +25288,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>40.001137999999997</v>
+        <v>40.001683</v>
       </c>
       <c r="B5">
-        <v>10.000022</v>
+        <v>9.9998389999999997</v>
       </c>
       <c r="C5">
-        <v>6223</v>
+        <v>3104</v>
       </c>
       <c r="D5">
-        <v>6223</v>
+        <v>3104</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -23778,16 +25305,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>50.001322000000002</v>
+        <v>50.001733999999999</v>
       </c>
       <c r="B6">
-        <v>10.000184000000001</v>
+        <v>10.000050999999999</v>
       </c>
       <c r="C6">
-        <v>7971</v>
+        <v>4685</v>
       </c>
       <c r="D6">
-        <v>7971</v>
+        <v>4685</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -23795,16 +25322,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>60.010238999999999</v>
+        <v>60.001758000000002</v>
       </c>
       <c r="B7">
-        <v>10.008917</v>
+        <v>10.000024</v>
       </c>
       <c r="C7">
-        <v>7048</v>
+        <v>4374</v>
       </c>
       <c r="D7">
-        <v>7048</v>
+        <v>4374</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23812,16 +25339,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>70.001226000000003</v>
+        <v>70.001745</v>
       </c>
       <c r="B8">
-        <v>9.9909870000000005</v>
+        <v>9.9999870000000008</v>
       </c>
       <c r="C8">
-        <v>3928</v>
+        <v>2201</v>
       </c>
       <c r="D8">
-        <v>3928</v>
+        <v>2201</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23829,16 +25356,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>80.001542000000001</v>
+        <v>80.001795999999999</v>
       </c>
       <c r="B9">
-        <v>10.000316</v>
+        <v>10.000050999999999</v>
       </c>
       <c r="C9">
-        <v>7578</v>
+        <v>3319</v>
       </c>
       <c r="D9">
-        <v>7578</v>
+        <v>3319</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -23846,16 +25373,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>90.001154999999997</v>
+        <v>90.001746999999995</v>
       </c>
       <c r="B10">
-        <v>9.9996130000000001</v>
+        <v>9.9999509999999994</v>
       </c>
       <c r="C10">
-        <v>7214</v>
+        <v>4365</v>
       </c>
       <c r="D10">
-        <v>7214</v>
+        <v>4365</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -23863,16 +25390,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>100.001198</v>
+        <v>100.006674</v>
       </c>
       <c r="B11">
-        <v>10.000043</v>
+        <v>10.004927</v>
       </c>
       <c r="C11">
-        <v>3232</v>
+        <v>3677</v>
       </c>
       <c r="D11">
-        <v>3232</v>
+        <v>3677</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -23880,16 +25407,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>110.001113</v>
+        <v>110.002042</v>
       </c>
       <c r="B12">
-        <v>9.9999149999999997</v>
+        <v>9.9953679999999991</v>
       </c>
       <c r="C12">
-        <v>7848</v>
+        <v>2420</v>
       </c>
       <c r="D12">
-        <v>7848</v>
+        <v>2420</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -23897,16 +25424,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>120.001233</v>
+        <v>120.00185</v>
       </c>
       <c r="B13">
-        <v>10.000120000000001</v>
+        <v>9.9998079999999998</v>
       </c>
       <c r="C13">
-        <v>7189</v>
+        <v>4578</v>
       </c>
       <c r="D13">
-        <v>7189</v>
+        <v>4578</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -23914,16 +25441,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>130.00112200000001</v>
+        <v>130.00174100000001</v>
       </c>
       <c r="B14">
-        <v>9.9998889999999996</v>
+        <v>9.9998909999999999</v>
       </c>
       <c r="C14">
-        <v>5764</v>
+        <v>4064</v>
       </c>
       <c r="D14">
-        <v>5764</v>
+        <v>4064</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -23931,16 +25458,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>140.00141600000001</v>
+        <v>140.00481199999999</v>
       </c>
       <c r="B15">
-        <v>10.000294</v>
+        <v>10.003071</v>
       </c>
       <c r="C15">
-        <v>6076</v>
+        <v>3102</v>
       </c>
       <c r="D15">
-        <v>6076</v>
+        <v>3102</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -23948,16 +25475,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>150.00344200000001</v>
+        <v>150.00173100000001</v>
       </c>
       <c r="B16">
-        <v>10.002026000000001</v>
+        <v>9.9969190000000001</v>
       </c>
       <c r="C16">
-        <v>7102</v>
+        <v>3771</v>
       </c>
       <c r="D16">
-        <v>7102</v>
+        <v>3771</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -23965,16 +25492,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>160.00112999999999</v>
+        <v>160.001666</v>
       </c>
       <c r="B17">
-        <v>9.9976880000000001</v>
+        <v>9.9999350000000007</v>
       </c>
       <c r="C17">
-        <v>5756</v>
+        <v>4043</v>
       </c>
       <c r="D17">
-        <v>5756</v>
+        <v>4043</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -23982,16 +25509,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>170.001183</v>
+        <v>170.00175200000001</v>
       </c>
       <c r="B18">
-        <v>10.000052999999999</v>
+        <v>10.000086</v>
       </c>
       <c r="C18">
-        <v>4697</v>
+        <v>3993</v>
       </c>
       <c r="D18">
-        <v>4697</v>
+        <v>3993</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -23999,16 +25526,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>180.00149999999999</v>
+        <v>180.00185300000001</v>
       </c>
       <c r="B19">
-        <v>10.000317000000001</v>
+        <v>10.000101000000001</v>
       </c>
       <c r="C19">
-        <v>7301</v>
+        <v>3606</v>
       </c>
       <c r="D19">
-        <v>7301</v>
+        <v>3606</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -24016,16 +25543,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>190.00119799999999</v>
+        <v>190.001947</v>
       </c>
       <c r="B20">
-        <v>9.9996980000000004</v>
+        <v>10.000094000000001</v>
       </c>
       <c r="C20">
-        <v>5654</v>
+        <v>4114</v>
       </c>
       <c r="D20">
-        <v>5654</v>
+        <v>4114</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -24033,16 +25560,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>200.001148</v>
+        <v>200.00166999999999</v>
       </c>
       <c r="B21">
-        <v>9.9999500000000001</v>
+        <v>9.9997229999999995</v>
       </c>
       <c r="C21">
-        <v>4618</v>
+        <v>3465</v>
       </c>
       <c r="D21">
-        <v>4618</v>
+        <v>3465</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -24050,16 +25577,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>210.001181</v>
+        <v>210.001668</v>
       </c>
       <c r="B22">
-        <v>10.000033</v>
+        <v>9.9999979999999997</v>
       </c>
       <c r="C22">
-        <v>7294</v>
+        <v>2747</v>
       </c>
       <c r="D22">
-        <v>7294</v>
+        <v>2747</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -24067,16 +25594,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>220.00351900000001</v>
+        <v>220.001679</v>
       </c>
       <c r="B23">
-        <v>10.002338</v>
+        <v>10.000011000000001</v>
       </c>
       <c r="C23">
-        <v>5704</v>
+        <v>4218</v>
       </c>
       <c r="D23">
-        <v>5704</v>
+        <v>4218</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -24084,16 +25611,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>230.006125</v>
+        <v>230.001801</v>
       </c>
       <c r="B24">
-        <v>10.002606</v>
+        <v>10.000121999999999</v>
       </c>
       <c r="C24">
-        <v>6890</v>
+        <v>3404</v>
       </c>
       <c r="D24">
-        <v>6890</v>
+        <v>3404</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -24101,16 +25628,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>240.001127</v>
+        <v>240.00166300000001</v>
       </c>
       <c r="B25">
-        <v>9.9950019999999995</v>
+        <v>9.9998620000000003</v>
       </c>
       <c r="C25">
-        <v>7332</v>
+        <v>3676</v>
       </c>
       <c r="D25">
-        <v>7332</v>
+        <v>3676</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -24118,16 +25645,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>250.00110599999999</v>
+        <v>250.00170199999999</v>
       </c>
       <c r="B26">
-        <v>9.9999789999999997</v>
+        <v>10.000038999999999</v>
       </c>
       <c r="C26">
-        <v>5062</v>
+        <v>4162</v>
       </c>
       <c r="D26">
-        <v>5062</v>
+        <v>4162</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -24135,16 +25662,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>260.00140499999998</v>
+        <v>260.00202000000002</v>
       </c>
       <c r="B27">
-        <v>10.000299</v>
+        <v>10.000318</v>
       </c>
       <c r="C27">
-        <v>6487</v>
+        <v>3712</v>
       </c>
       <c r="D27">
-        <v>6487</v>
+        <v>3712</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -24152,16 +25679,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>270.002521</v>
+        <v>270.00176499999998</v>
       </c>
       <c r="B28">
-        <v>10.001116</v>
+        <v>9.9997450000000008</v>
       </c>
       <c r="C28">
-        <v>7436</v>
+        <v>3866</v>
       </c>
       <c r="D28">
-        <v>7436</v>
+        <v>3866</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -24169,16 +25696,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>280.00126699999998</v>
+        <v>280.001915</v>
       </c>
       <c r="B29">
-        <v>9.9987460000000006</v>
+        <v>10.00015</v>
       </c>
       <c r="C29">
-        <v>5818</v>
+        <v>4101</v>
       </c>
       <c r="D29">
-        <v>5818</v>
+        <v>4101</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -24186,16 +25713,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>290.00112100000001</v>
+        <v>290.001668</v>
       </c>
       <c r="B30">
-        <v>9.9998539999999991</v>
+        <v>9.9997530000000001</v>
       </c>
       <c r="C30">
-        <v>6010</v>
+        <v>3966</v>
       </c>
       <c r="D30">
-        <v>6010</v>
+        <v>3966</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -24203,16 +25730,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>300.00139999999999</v>
+        <v>300.001665</v>
       </c>
       <c r="B31">
-        <v>10.000279000000001</v>
+        <v>9.9999970000000005</v>
       </c>
       <c r="C31">
-        <v>6925</v>
+        <v>3285</v>
       </c>
       <c r="D31">
-        <v>6925</v>
+        <v>3285</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -24220,16 +25747,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>310.00125400000002</v>
+        <v>310.00167499999998</v>
       </c>
       <c r="B32">
-        <v>9.9998539999999991</v>
+        <v>10.00001</v>
       </c>
       <c r="C32">
-        <v>6246</v>
+        <v>4154</v>
       </c>
       <c r="D32">
-        <v>6246</v>
+        <v>4154</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -24237,16 +25764,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>320.00112899999999</v>
+        <v>320.00176199999999</v>
       </c>
       <c r="B33">
-        <v>9.9998749999999994</v>
+        <v>10.000087000000001</v>
       </c>
       <c r="C33">
-        <v>5589</v>
+        <v>3680</v>
       </c>
       <c r="D33">
-        <v>5589</v>
+        <v>3680</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -24254,16 +25781,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>330.00351499999999</v>
+        <v>330.0018</v>
       </c>
       <c r="B34">
-        <v>10.002386</v>
+        <v>10.000038</v>
       </c>
       <c r="C34">
-        <v>6850</v>
+        <v>3547</v>
       </c>
       <c r="D34">
-        <v>6850</v>
+        <v>3547</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -24271,16 +25798,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>340.00774699999999</v>
+        <v>340.00188800000001</v>
       </c>
       <c r="B35">
-        <v>10.004232</v>
+        <v>10.000088</v>
       </c>
       <c r="C35">
-        <v>6900</v>
+        <v>4196</v>
       </c>
       <c r="D35">
-        <v>6900</v>
+        <v>4196</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -24288,16 +25815,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>350.00514299999998</v>
+        <v>350.004886</v>
       </c>
       <c r="B36">
-        <v>9.9973960000000002</v>
+        <v>10.002998</v>
       </c>
       <c r="C36">
-        <v>6110</v>
+        <v>4280</v>
       </c>
       <c r="D36">
-        <v>6110</v>
+        <v>4280</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -24305,16 +25832,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>360.00155000000001</v>
+        <v>360.00167499999998</v>
       </c>
       <c r="B37">
-        <v>9.9964069999999996</v>
+        <v>9.9967889999999997</v>
       </c>
       <c r="C37">
-        <v>6949</v>
+        <v>3802</v>
       </c>
       <c r="D37">
-        <v>6949</v>
+        <v>3802</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -24322,16 +25849,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>370.00114600000001</v>
+        <v>370.00177200000002</v>
       </c>
       <c r="B38">
-        <v>9.9995960000000004</v>
+        <v>10.000097</v>
       </c>
       <c r="C38">
-        <v>6946</v>
+        <v>3934</v>
       </c>
       <c r="D38">
-        <v>6946</v>
+        <v>3934</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -24339,16 +25866,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>380.00192600000003</v>
+        <v>380.00260900000001</v>
       </c>
       <c r="B39">
-        <v>10.000780000000001</v>
+        <v>10.000837000000001</v>
       </c>
       <c r="C39">
-        <v>5515</v>
+        <v>4239</v>
       </c>
       <c r="D39">
-        <v>5515</v>
+        <v>4239</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -24356,16 +25883,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>390.00239699999997</v>
+        <v>390.00065999999998</v>
       </c>
       <c r="B40">
-        <v>10.000470999999999</v>
+        <v>9.9980510000000002</v>
       </c>
       <c r="C40">
-        <v>7038</v>
+        <v>3646</v>
       </c>
       <c r="D40">
-        <v>7038</v>
+        <v>3646</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -24373,16 +25900,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>400.00140299999998</v>
+        <v>400.00190800000001</v>
       </c>
       <c r="B41">
-        <v>9.9990059999999996</v>
+        <v>10.001248</v>
       </c>
       <c r="C41">
-        <v>7295</v>
+        <v>3752</v>
       </c>
       <c r="D41">
-        <v>7295</v>
+        <v>3752</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -24390,16 +25917,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>410.00126599999999</v>
+        <v>410.00516499999998</v>
       </c>
       <c r="B42">
-        <v>9.9998629999999995</v>
+        <v>10.003257</v>
       </c>
       <c r="C42">
-        <v>4569</v>
+        <v>4231</v>
       </c>
       <c r="D42">
-        <v>4569</v>
+        <v>4231</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -24407,16 +25934,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>420.001803</v>
+        <v>420.00566700000002</v>
       </c>
       <c r="B43">
-        <v>10.000537</v>
+        <v>10.000501999999999</v>
       </c>
       <c r="C43">
-        <v>7034</v>
+        <v>3792</v>
       </c>
       <c r="D43">
-        <v>7034</v>
+        <v>3792</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -24424,16 +25951,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>430.00158399999998</v>
+        <v>430.00185699999997</v>
       </c>
       <c r="B44">
-        <v>9.9997810000000005</v>
+        <v>9.9961900000000004</v>
       </c>
       <c r="C44">
-        <v>7242</v>
+        <v>3502</v>
       </c>
       <c r="D44">
-        <v>7242</v>
+        <v>3502</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -24441,16 +25968,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>440.00111900000002</v>
+        <v>440.00189499999999</v>
       </c>
       <c r="B45">
-        <v>9.9995349999999998</v>
+        <v>10.000038</v>
       </c>
       <c r="C45">
-        <v>5432</v>
+        <v>4382</v>
       </c>
       <c r="D45">
-        <v>5432</v>
+        <v>4382</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -24458,16 +25985,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>450.00156700000002</v>
+        <v>450.00282600000003</v>
       </c>
       <c r="B46">
-        <v>10.000448</v>
+        <v>10.000931</v>
       </c>
       <c r="C46">
-        <v>6396</v>
+        <v>3832</v>
       </c>
       <c r="D46">
-        <v>6396</v>
+        <v>3832</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -24475,16 +26002,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>460.001304</v>
+        <v>460.00196699999998</v>
       </c>
       <c r="B47">
-        <v>9.9997369999999997</v>
+        <v>9.9991409999999998</v>
       </c>
       <c r="C47">
-        <v>7064</v>
+        <v>3738</v>
       </c>
       <c r="D47">
-        <v>7064</v>
+        <v>3738</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -24492,16 +26019,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>470.00117899999998</v>
+        <v>470.00196999999997</v>
       </c>
       <c r="B48">
-        <v>9.9998749999999994</v>
+        <v>10.000003</v>
       </c>
       <c r="C48">
-        <v>6194</v>
+        <v>4173</v>
       </c>
       <c r="D48">
-        <v>6194</v>
+        <v>4173</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -24509,16 +26036,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>480.00124099999999</v>
+        <v>480.00172300000003</v>
       </c>
       <c r="B49">
-        <v>10.000062</v>
+        <v>9.9997530000000001</v>
       </c>
       <c r="C49">
-        <v>6038</v>
+        <v>4012</v>
       </c>
       <c r="D49">
-        <v>6038</v>
+        <v>4012</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -24526,16 +26053,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>490.00302799999997</v>
+        <v>490.00224200000002</v>
       </c>
       <c r="B50">
-        <v>10.001787</v>
+        <v>10.000519000000001</v>
       </c>
       <c r="C50">
-        <v>7079</v>
+        <v>3724</v>
       </c>
       <c r="D50">
-        <v>7079</v>
+        <v>3724</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -24543,16 +26070,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>500.00741799999997</v>
+        <v>500.00066299999997</v>
       </c>
       <c r="B51">
-        <v>10.004390000000001</v>
+        <v>9.9984210000000004</v>
       </c>
       <c r="C51">
-        <v>6112</v>
+        <v>3535</v>
       </c>
       <c r="D51">
-        <v>6112</v>
+        <v>3535</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -24560,16 +26087,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>510.00111399999997</v>
+        <v>510.00192800000002</v>
       </c>
       <c r="B52">
-        <v>9.9936959999999999</v>
+        <v>10.001265</v>
       </c>
       <c r="C52">
-        <v>5561</v>
+        <v>4271</v>
       </c>
       <c r="D52">
-        <v>5561</v>
+        <v>4271</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -24577,16 +26104,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>520.00235599999996</v>
+        <v>520.00171499999999</v>
       </c>
       <c r="B53">
-        <v>10.001242</v>
+        <v>9.9997869999999995</v>
       </c>
       <c r="C53">
-        <v>7075</v>
+        <v>3937</v>
       </c>
       <c r="D53">
-        <v>7075</v>
+        <v>3937</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -24594,16 +26121,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>530.00153499999999</v>
+        <v>530.00598100000002</v>
       </c>
       <c r="B54">
-        <v>9.9991789999999998</v>
+        <v>10.004265999999999</v>
       </c>
       <c r="C54">
-        <v>6894</v>
+        <v>4170</v>
       </c>
       <c r="D54">
-        <v>6894</v>
+        <v>4170</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -24611,16 +26138,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>540.00198499999999</v>
+        <v>540.00169700000004</v>
       </c>
       <c r="B55">
-        <v>10.000450000000001</v>
+        <v>9.9957159999999998</v>
       </c>
       <c r="C55">
-        <v>5483</v>
+        <v>4137</v>
       </c>
       <c r="D55">
-        <v>5483</v>
+        <v>4137</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -24628,16 +26155,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>550.00170800000001</v>
+        <v>550.00190899999996</v>
       </c>
       <c r="B56">
-        <v>9.9997229999999995</v>
+        <v>10.000211999999999</v>
       </c>
       <c r="C56">
-        <v>7299</v>
+        <v>3505</v>
       </c>
       <c r="D56">
-        <v>7299</v>
+        <v>3505</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -24645,16 +26172,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>560.00169200000005</v>
+        <v>560.00175400000001</v>
       </c>
       <c r="B57">
-        <v>9.9999839999999995</v>
+        <v>9.9998450000000005</v>
       </c>
       <c r="C57">
-        <v>7284</v>
+        <v>3433</v>
       </c>
       <c r="D57">
-        <v>7284</v>
+        <v>3433</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -24662,16 +26189,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>570.00125700000001</v>
+        <v>570.00482399999999</v>
       </c>
       <c r="B58">
-        <v>9.9995650000000005</v>
+        <v>10.003069999999999</v>
       </c>
       <c r="C58">
-        <v>5834</v>
+        <v>4213</v>
       </c>
       <c r="D58">
-        <v>5834</v>
+        <v>4213</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -24679,16 +26206,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>580.00338499999998</v>
+        <v>580.00170700000001</v>
       </c>
       <c r="B59">
-        <v>10.002128000000001</v>
+        <v>9.9968830000000004</v>
       </c>
       <c r="C59">
-        <v>6947</v>
+        <v>3625</v>
       </c>
       <c r="D59">
-        <v>6947</v>
+        <v>3625</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -24696,16 +26223,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>590.00154699999996</v>
+        <v>590.00172599999996</v>
       </c>
       <c r="B60">
-        <v>9.9981620000000007</v>
+        <v>10.000019</v>
       </c>
       <c r="C60">
-        <v>6894</v>
+        <v>3539</v>
       </c>
       <c r="D60">
-        <v>6894</v>
+        <v>3539</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -24713,16 +26240,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>600.00189</v>
+        <v>600.00251500000002</v>
       </c>
       <c r="B61">
-        <v>10.000343000000001</v>
+        <v>10.000788999999999</v>
       </c>
       <c r="C61">
-        <v>6899</v>
+        <v>4062</v>
       </c>
       <c r="D61">
-        <v>6899</v>
+        <v>4062</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -24730,16 +26257,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>601.02235499999995</v>
+        <v>601.02695800000004</v>
       </c>
       <c r="B62">
-        <v>1.020465</v>
+        <v>1.024443</v>
       </c>
       <c r="C62">
-        <v>722</v>
+        <v>1289</v>
       </c>
       <c r="D62">
-        <v>722</v>
+        <v>1289</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -28898,10 +30425,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X63"/>
+  <dimension ref="A1:AG63"/>
   <sheetViews>
-    <sheetView topLeftCell="G48" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3:X63"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28923,7 +30450,7 @@
     <col min="18" max="18" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
@@ -28950,8 +30477,11 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -29009,8 +30539,29 @@
       <c r="X2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10.000914</v>
       </c>
@@ -29062,8 +30613,30 @@
         <f>SUM(R3:W3)</f>
         <v>51549</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA3">
+        <v>6074</v>
+      </c>
+      <c r="AB3">
+        <v>4942</v>
+      </c>
+      <c r="AC3">
+        <v>5224</v>
+      </c>
+      <c r="AD3">
+        <v>4743</v>
+      </c>
+      <c r="AE3">
+        <v>4755</v>
+      </c>
+      <c r="AF3">
+        <v>4716</v>
+      </c>
+      <c r="AG3">
+        <f>SUM(AA3:AF3)</f>
+        <v>30454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20.001992999999999</v>
       </c>
@@ -29115,8 +30688,30 @@
         <f t="shared" ref="X4:X63" si="2">SUM(R4:W4)</f>
         <v>48916</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA4">
+        <v>5179</v>
+      </c>
+      <c r="AB4">
+        <v>4735</v>
+      </c>
+      <c r="AC4">
+        <v>4715</v>
+      </c>
+      <c r="AD4">
+        <v>4793</v>
+      </c>
+      <c r="AE4">
+        <v>4731</v>
+      </c>
+      <c r="AF4">
+        <v>4668</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" ref="AG4:AG63" si="3">SUM(AA4:AF4)</f>
+        <v>28821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30.001940999999999</v>
       </c>
@@ -29168,8 +30763,30 @@
         <f t="shared" si="2"/>
         <v>43546</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA5">
+        <v>4822</v>
+      </c>
+      <c r="AB5">
+        <v>4194</v>
+      </c>
+      <c r="AC5">
+        <v>4574</v>
+      </c>
+      <c r="AD5">
+        <v>4154</v>
+      </c>
+      <c r="AE5">
+        <v>4185</v>
+      </c>
+      <c r="AF5">
+        <v>3585</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="3"/>
+        <v>25514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>40.001925</v>
       </c>
@@ -29221,8 +30838,30 @@
         <f t="shared" si="2"/>
         <v>27703</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA6">
+        <v>2684</v>
+      </c>
+      <c r="AB6">
+        <v>2523</v>
+      </c>
+      <c r="AC6">
+        <v>2338</v>
+      </c>
+      <c r="AD6">
+        <v>2558</v>
+      </c>
+      <c r="AE6">
+        <v>2685</v>
+      </c>
+      <c r="AF6">
+        <v>3104</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="3"/>
+        <v>15892</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50.001916999999999</v>
       </c>
@@ -29274,8 +30913,30 @@
         <f t="shared" si="2"/>
         <v>48893</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA7">
+        <v>4856</v>
+      </c>
+      <c r="AB7">
+        <v>4652</v>
+      </c>
+      <c r="AC7">
+        <v>4609</v>
+      </c>
+      <c r="AD7">
+        <v>4700</v>
+      </c>
+      <c r="AE7">
+        <v>4799</v>
+      </c>
+      <c r="AF7">
+        <v>4685</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="3"/>
+        <v>28301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>60.002018999999997</v>
       </c>
@@ -29327,8 +30988,30 @@
         <f t="shared" si="2"/>
         <v>45941</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA8">
+        <v>4795</v>
+      </c>
+      <c r="AB8">
+        <v>4620</v>
+      </c>
+      <c r="AC8">
+        <v>4585</v>
+      </c>
+      <c r="AD8">
+        <v>4403</v>
+      </c>
+      <c r="AE8">
+        <v>4562</v>
+      </c>
+      <c r="AF8">
+        <v>4374</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="3"/>
+        <v>27339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>70.001974000000004</v>
       </c>
@@ -29380,8 +31063,30 @@
         <f t="shared" si="2"/>
         <v>22112</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA9">
+        <v>3587</v>
+      </c>
+      <c r="AB9">
+        <v>2900</v>
+      </c>
+      <c r="AC9">
+        <v>2669</v>
+      </c>
+      <c r="AD9">
+        <v>2550</v>
+      </c>
+      <c r="AE9">
+        <v>2665</v>
+      </c>
+      <c r="AF9">
+        <v>2201</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="3"/>
+        <v>16572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80.001904999999994</v>
       </c>
@@ -29433,8 +31138,30 @@
         <f t="shared" si="2"/>
         <v>45439</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA10">
+        <v>2247</v>
+      </c>
+      <c r="AB10">
+        <v>2782</v>
+      </c>
+      <c r="AC10">
+        <v>2421</v>
+      </c>
+      <c r="AD10">
+        <v>2941</v>
+      </c>
+      <c r="AE10">
+        <v>2936</v>
+      </c>
+      <c r="AF10">
+        <v>3319</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="3"/>
+        <v>16646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>90.001948999999996</v>
       </c>
@@ -29486,8 +31213,30 @@
         <f t="shared" si="2"/>
         <v>46040</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA11">
+        <v>4530</v>
+      </c>
+      <c r="AB11">
+        <v>4338</v>
+      </c>
+      <c r="AC11">
+        <v>4605</v>
+      </c>
+      <c r="AD11">
+        <v>4742</v>
+      </c>
+      <c r="AE11">
+        <v>4614</v>
+      </c>
+      <c r="AF11">
+        <v>4365</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="3"/>
+        <v>27194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100.001993</v>
       </c>
@@ -29539,8 +31288,30 @@
         <f t="shared" si="2"/>
         <v>27827</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA12">
+        <v>3842</v>
+      </c>
+      <c r="AB12">
+        <v>3879</v>
+      </c>
+      <c r="AC12">
+        <v>3637</v>
+      </c>
+      <c r="AD12">
+        <v>3788</v>
+      </c>
+      <c r="AE12">
+        <v>3750</v>
+      </c>
+      <c r="AF12">
+        <v>3677</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="3"/>
+        <v>22573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>110.00212999999999</v>
       </c>
@@ -29592,8 +31363,30 @@
         <f t="shared" si="2"/>
         <v>37370</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA13">
+        <v>3175</v>
+      </c>
+      <c r="AB13">
+        <v>2528</v>
+      </c>
+      <c r="AC13">
+        <v>2739</v>
+      </c>
+      <c r="AD13">
+        <v>2947</v>
+      </c>
+      <c r="AE13">
+        <v>2654</v>
+      </c>
+      <c r="AF13">
+        <v>2420</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="3"/>
+        <v>16463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>120.00090400000001</v>
       </c>
@@ -29645,8 +31438,30 @@
         <f t="shared" si="2"/>
         <v>45846</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA14">
+        <v>3523</v>
+      </c>
+      <c r="AB14">
+        <v>3956</v>
+      </c>
+      <c r="AC14">
+        <v>3956</v>
+      </c>
+      <c r="AD14">
+        <v>3820</v>
+      </c>
+      <c r="AE14">
+        <v>4147</v>
+      </c>
+      <c r="AF14">
+        <v>4578</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="3"/>
+        <v>23980</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>130.00190699999999</v>
       </c>
@@ -29698,8 +31513,30 @@
         <f t="shared" si="2"/>
         <v>36049</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA15">
+        <v>4363</v>
+      </c>
+      <c r="AB15">
+        <v>4198</v>
+      </c>
+      <c r="AC15">
+        <v>4135</v>
+      </c>
+      <c r="AD15">
+        <v>4117</v>
+      </c>
+      <c r="AE15">
+        <v>3968</v>
+      </c>
+      <c r="AF15">
+        <v>4064</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="3"/>
+        <v>24845</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>140.00196099999999</v>
       </c>
@@ -29751,8 +31588,30 @@
         <f t="shared" si="2"/>
         <v>35285</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA16">
+        <v>3950</v>
+      </c>
+      <c r="AB16">
+        <v>3440</v>
+      </c>
+      <c r="AC16">
+        <v>3498</v>
+      </c>
+      <c r="AD16">
+        <v>3354</v>
+      </c>
+      <c r="AE16">
+        <v>3458</v>
+      </c>
+      <c r="AF16">
+        <v>3102</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="3"/>
+        <v>20802</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>150.00191799999999</v>
       </c>
@@ -29804,8 +31663,30 @@
         <f t="shared" si="2"/>
         <v>45457</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA17">
+        <v>3089</v>
+      </c>
+      <c r="AB17">
+        <v>3025</v>
+      </c>
+      <c r="AC17">
+        <v>3426</v>
+      </c>
+      <c r="AD17">
+        <v>3109</v>
+      </c>
+      <c r="AE17">
+        <v>3316</v>
+      </c>
+      <c r="AF17">
+        <v>3771</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="3"/>
+        <v>19736</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>160.00190599999999</v>
       </c>
@@ -29857,8 +31738,30 @@
         <f t="shared" si="2"/>
         <v>34337</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA18">
+        <v>4485</v>
+      </c>
+      <c r="AB18">
+        <v>4113</v>
+      </c>
+      <c r="AC18">
+        <v>4056</v>
+      </c>
+      <c r="AD18">
+        <v>4152</v>
+      </c>
+      <c r="AE18">
+        <v>4034</v>
+      </c>
+      <c r="AF18">
+        <v>4043</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="3"/>
+        <v>24883</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>170.001925</v>
       </c>
@@ -29910,8 +31813,30 @@
         <f t="shared" si="2"/>
         <v>29920</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA19">
+        <v>3827</v>
+      </c>
+      <c r="AB19">
+        <v>3808</v>
+      </c>
+      <c r="AC19">
+        <v>3431</v>
+      </c>
+      <c r="AD19">
+        <v>3925</v>
+      </c>
+      <c r="AE19">
+        <v>3884</v>
+      </c>
+      <c r="AF19">
+        <v>3993</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="3"/>
+        <v>22868</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>180.00193200000001</v>
       </c>
@@ -29963,8 +31888,30 @@
         <f t="shared" si="2"/>
         <v>44282</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA20">
+        <v>3644</v>
+      </c>
+      <c r="AB20">
+        <v>3619</v>
+      </c>
+      <c r="AC20">
+        <v>4064</v>
+      </c>
+      <c r="AD20">
+        <v>3463</v>
+      </c>
+      <c r="AE20">
+        <v>4170</v>
+      </c>
+      <c r="AF20">
+        <v>3606</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="3"/>
+        <v>22566</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>190.001903</v>
       </c>
@@ -30016,8 +31963,30 @@
         <f t="shared" si="2"/>
         <v>37702</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA21">
+        <v>4233</v>
+      </c>
+      <c r="AB21">
+        <v>4309</v>
+      </c>
+      <c r="AC21">
+        <v>4234</v>
+      </c>
+      <c r="AD21">
+        <v>4296</v>
+      </c>
+      <c r="AE21">
+        <v>4247</v>
+      </c>
+      <c r="AF21">
+        <v>4114</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="3"/>
+        <v>25433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>200.00196500000001</v>
       </c>
@@ -30069,8 +32038,30 @@
         <f t="shared" si="2"/>
         <v>36841</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA22">
+        <v>3792</v>
+      </c>
+      <c r="AB22">
+        <v>3693</v>
+      </c>
+      <c r="AC22">
+        <v>3688</v>
+      </c>
+      <c r="AD22">
+        <v>3741</v>
+      </c>
+      <c r="AE22">
+        <v>3619</v>
+      </c>
+      <c r="AF22">
+        <v>3465</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="3"/>
+        <v>21998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>210.009907</v>
       </c>
@@ -30122,8 +32113,30 @@
         <f t="shared" si="2"/>
         <v>33822</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA23">
+        <v>3009</v>
+      </c>
+      <c r="AB23">
+        <v>2649</v>
+      </c>
+      <c r="AC23">
+        <v>2514</v>
+      </c>
+      <c r="AD23">
+        <v>2707</v>
+      </c>
+      <c r="AE23">
+        <v>2548</v>
+      </c>
+      <c r="AF23">
+        <v>2747</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="3"/>
+        <v>16174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>220.00193300000001</v>
       </c>
@@ -30175,8 +32188,30 @@
         <f t="shared" si="2"/>
         <v>41233</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA24">
+        <v>3579</v>
+      </c>
+      <c r="AB24">
+        <v>4430</v>
+      </c>
+      <c r="AC24">
+        <v>4078</v>
+      </c>
+      <c r="AD24">
+        <v>4367</v>
+      </c>
+      <c r="AE24">
+        <v>4433</v>
+      </c>
+      <c r="AF24">
+        <v>4218</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="3"/>
+        <v>25105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>230.00205600000001</v>
       </c>
@@ -30228,8 +32263,30 @@
         <f t="shared" si="2"/>
         <v>38856</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA25">
+        <v>3991</v>
+      </c>
+      <c r="AB25">
+        <v>3753</v>
+      </c>
+      <c r="AC25">
+        <v>3823</v>
+      </c>
+      <c r="AD25">
+        <v>3746</v>
+      </c>
+      <c r="AE25">
+        <v>3730</v>
+      </c>
+      <c r="AF25">
+        <v>3404</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="3"/>
+        <v>22447</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>240.00093000000001</v>
       </c>
@@ -30281,8 +32338,30 @@
         <f t="shared" si="2"/>
         <v>42483</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA26">
+        <v>3738</v>
+      </c>
+      <c r="AB26">
+        <v>3791</v>
+      </c>
+      <c r="AC26">
+        <v>3869</v>
+      </c>
+      <c r="AD26">
+        <v>3598</v>
+      </c>
+      <c r="AE26">
+        <v>3788</v>
+      </c>
+      <c r="AF26">
+        <v>3676</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="3"/>
+        <v>22460</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>250.001903</v>
       </c>
@@ -30334,8 +32413,30 @@
         <f t="shared" si="2"/>
         <v>41568</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA27">
+        <v>4030</v>
+      </c>
+      <c r="AB27">
+        <v>4065</v>
+      </c>
+      <c r="AC27">
+        <v>4153</v>
+      </c>
+      <c r="AD27">
+        <v>4117</v>
+      </c>
+      <c r="AE27">
+        <v>4166</v>
+      </c>
+      <c r="AF27">
+        <v>4162</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="3"/>
+        <v>24693</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>260.00203099999999</v>
       </c>
@@ -30387,8 +32488,30 @@
         <f t="shared" si="2"/>
         <v>33698</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA28">
+        <v>4171</v>
+      </c>
+      <c r="AB28">
+        <v>3968</v>
+      </c>
+      <c r="AC28">
+        <v>3689</v>
+      </c>
+      <c r="AD28">
+        <v>3963</v>
+      </c>
+      <c r="AE28">
+        <v>3633</v>
+      </c>
+      <c r="AF28">
+        <v>3712</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="3"/>
+        <v>23136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>270.001983</v>
       </c>
@@ -30440,8 +32563,30 @@
         <f t="shared" si="2"/>
         <v>43930</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA29">
+        <v>3643</v>
+      </c>
+      <c r="AB29">
+        <v>3867</v>
+      </c>
+      <c r="AC29">
+        <v>3773</v>
+      </c>
+      <c r="AD29">
+        <v>4023</v>
+      </c>
+      <c r="AE29">
+        <v>3754</v>
+      </c>
+      <c r="AF29">
+        <v>3866</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="3"/>
+        <v>22926</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>280.00293699999997</v>
       </c>
@@ -30493,8 +32638,30 @@
         <f t="shared" si="2"/>
         <v>41627</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA30">
+        <v>4094</v>
+      </c>
+      <c r="AB30">
+        <v>3827</v>
+      </c>
+      <c r="AC30">
+        <v>4005</v>
+      </c>
+      <c r="AD30">
+        <v>3947</v>
+      </c>
+      <c r="AE30">
+        <v>4019</v>
+      </c>
+      <c r="AF30">
+        <v>4101</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="3"/>
+        <v>23993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>290.001957</v>
       </c>
@@ -30546,8 +32713,30 @@
         <f t="shared" si="2"/>
         <v>32774</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA31">
+        <v>4097</v>
+      </c>
+      <c r="AB31">
+        <v>4019</v>
+      </c>
+      <c r="AC31">
+        <v>4127</v>
+      </c>
+      <c r="AD31">
+        <v>4007</v>
+      </c>
+      <c r="AE31">
+        <v>4251</v>
+      </c>
+      <c r="AF31">
+        <v>3966</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="3"/>
+        <v>24467</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>300.00294200000002</v>
       </c>
@@ -30599,8 +32788,30 @@
         <f t="shared" si="2"/>
         <v>42733</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA32">
+        <v>3584</v>
+      </c>
+      <c r="AB32">
+        <v>3253</v>
+      </c>
+      <c r="AC32">
+        <v>3394</v>
+      </c>
+      <c r="AD32">
+        <v>3664</v>
+      </c>
+      <c r="AE32">
+        <v>3417</v>
+      </c>
+      <c r="AF32">
+        <v>3285</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="3"/>
+        <v>20597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>310.002115</v>
       </c>
@@ -30652,8 +32863,30 @@
         <f t="shared" si="2"/>
         <v>43225</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA33">
+        <v>4185</v>
+      </c>
+      <c r="AB33">
+        <v>4160</v>
+      </c>
+      <c r="AC33">
+        <v>3938</v>
+      </c>
+      <c r="AD33">
+        <v>3953</v>
+      </c>
+      <c r="AE33">
+        <v>4089</v>
+      </c>
+      <c r="AF33">
+        <v>4154</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="3"/>
+        <v>24479</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>320.00090499999999</v>
       </c>
@@ -30705,8 +32938,30 @@
         <f t="shared" si="2"/>
         <v>31486</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA34">
+        <v>4252</v>
+      </c>
+      <c r="AB34">
+        <v>4301</v>
+      </c>
+      <c r="AC34">
+        <v>4356</v>
+      </c>
+      <c r="AD34">
+        <v>4221</v>
+      </c>
+      <c r="AE34">
+        <v>4124</v>
+      </c>
+      <c r="AF34">
+        <v>3680</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="3"/>
+        <v>24934</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>330.00205699999998</v>
       </c>
@@ -30758,8 +33013,30 @@
         <f t="shared" si="2"/>
         <v>42073</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA35">
+        <v>3503</v>
+      </c>
+      <c r="AB35">
+        <v>3429</v>
+      </c>
+      <c r="AC35">
+        <v>3459</v>
+      </c>
+      <c r="AD35">
+        <v>3852</v>
+      </c>
+      <c r="AE35">
+        <v>3827</v>
+      </c>
+      <c r="AF35">
+        <v>3547</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="3"/>
+        <v>21617</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>340.00091300000003</v>
       </c>
@@ -30811,8 +33088,30 @@
         <f t="shared" si="2"/>
         <v>42618</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA36">
+        <v>3673</v>
+      </c>
+      <c r="AB36">
+        <v>3848</v>
+      </c>
+      <c r="AC36">
+        <v>3713</v>
+      </c>
+      <c r="AD36">
+        <v>3917</v>
+      </c>
+      <c r="AE36">
+        <v>4032</v>
+      </c>
+      <c r="AF36">
+        <v>4196</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="3"/>
+        <v>23379</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>350.00196399999999</v>
       </c>
@@ -30864,8 +33163,30 @@
         <f t="shared" si="2"/>
         <v>37083</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA37">
+        <v>4184</v>
+      </c>
+      <c r="AB37">
+        <v>4395</v>
+      </c>
+      <c r="AC37">
+        <v>4274</v>
+      </c>
+      <c r="AD37">
+        <v>4333</v>
+      </c>
+      <c r="AE37">
+        <v>4247</v>
+      </c>
+      <c r="AF37">
+        <v>4280</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="3"/>
+        <v>25713</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>360.002002</v>
       </c>
@@ -30917,8 +33238,30 @@
         <f t="shared" si="2"/>
         <v>42247</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA38">
+        <v>4294</v>
+      </c>
+      <c r="AB38">
+        <v>4154</v>
+      </c>
+      <c r="AC38">
+        <v>3908</v>
+      </c>
+      <c r="AD38">
+        <v>4359</v>
+      </c>
+      <c r="AE38">
+        <v>3754</v>
+      </c>
+      <c r="AF38">
+        <v>3802</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" si="3"/>
+        <v>24271</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>370.001914</v>
       </c>
@@ -30970,8 +33313,30 @@
         <f t="shared" si="2"/>
         <v>42392</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA39">
+        <v>3734</v>
+      </c>
+      <c r="AB39">
+        <v>4050</v>
+      </c>
+      <c r="AC39">
+        <v>4014</v>
+      </c>
+      <c r="AD39">
+        <v>4084</v>
+      </c>
+      <c r="AE39">
+        <v>3967</v>
+      </c>
+      <c r="AF39">
+        <v>3934</v>
+      </c>
+      <c r="AG39">
+        <f t="shared" si="3"/>
+        <v>23783</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>380.00203399999998</v>
       </c>
@@ -31023,8 +33388,30 @@
         <f t="shared" si="2"/>
         <v>35669</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA40">
+        <v>4248</v>
+      </c>
+      <c r="AB40">
+        <v>4392</v>
+      </c>
+      <c r="AC40">
+        <v>4360</v>
+      </c>
+      <c r="AD40">
+        <v>4147</v>
+      </c>
+      <c r="AE40">
+        <v>4165</v>
+      </c>
+      <c r="AF40">
+        <v>4239</v>
+      </c>
+      <c r="AG40">
+        <f t="shared" si="3"/>
+        <v>25551</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>390.00219399999997</v>
       </c>
@@ -31076,8 +33463,30 @@
         <f t="shared" si="2"/>
         <v>40874</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA41">
+        <v>3846</v>
+      </c>
+      <c r="AB41">
+        <v>3962</v>
+      </c>
+      <c r="AC41">
+        <v>3540</v>
+      </c>
+      <c r="AD41">
+        <v>3481</v>
+      </c>
+      <c r="AE41">
+        <v>3810</v>
+      </c>
+      <c r="AF41">
+        <v>3646</v>
+      </c>
+      <c r="AG41">
+        <f t="shared" si="3"/>
+        <v>22285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>400.00098800000001</v>
       </c>
@@ -31129,8 +33538,30 @@
         <f t="shared" si="2"/>
         <v>45656</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA42">
+        <v>3372</v>
+      </c>
+      <c r="AB42">
+        <v>3564</v>
+      </c>
+      <c r="AC42">
+        <v>3300</v>
+      </c>
+      <c r="AD42">
+        <v>3334</v>
+      </c>
+      <c r="AE42">
+        <v>3587</v>
+      </c>
+      <c r="AF42">
+        <v>3752</v>
+      </c>
+      <c r="AG42">
+        <f t="shared" si="3"/>
+        <v>20909</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>410.00398300000001</v>
       </c>
@@ -31182,8 +33613,30 @@
         <f t="shared" si="2"/>
         <v>36601</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA43">
+        <v>4358</v>
+      </c>
+      <c r="AB43">
+        <v>4448</v>
+      </c>
+      <c r="AC43">
+        <v>4287</v>
+      </c>
+      <c r="AD43">
+        <v>4529</v>
+      </c>
+      <c r="AE43">
+        <v>4199</v>
+      </c>
+      <c r="AF43">
+        <v>4231</v>
+      </c>
+      <c r="AG43">
+        <f t="shared" si="3"/>
+        <v>26052</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>420.00207499999999</v>
       </c>
@@ -31235,8 +33688,30 @@
         <f t="shared" si="2"/>
         <v>37192</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA44">
+        <v>4251</v>
+      </c>
+      <c r="AB44">
+        <v>4040</v>
+      </c>
+      <c r="AC44">
+        <v>4017</v>
+      </c>
+      <c r="AD44">
+        <v>4041</v>
+      </c>
+      <c r="AE44">
+        <v>3968</v>
+      </c>
+      <c r="AF44">
+        <v>3792</v>
+      </c>
+      <c r="AG44">
+        <f t="shared" si="3"/>
+        <v>24109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>430.003106</v>
       </c>
@@ -31288,8 +33763,30 @@
         <f t="shared" si="2"/>
         <v>43480</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA45">
+        <v>3879</v>
+      </c>
+      <c r="AB45">
+        <v>3854</v>
+      </c>
+      <c r="AC45">
+        <v>3736</v>
+      </c>
+      <c r="AD45">
+        <v>3940</v>
+      </c>
+      <c r="AE45">
+        <v>3919</v>
+      </c>
+      <c r="AF45">
+        <v>3502</v>
+      </c>
+      <c r="AG45">
+        <f t="shared" si="3"/>
+        <v>22830</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>440.00107800000001</v>
       </c>
@@ -31341,8 +33838,30 @@
         <f t="shared" si="2"/>
         <v>36566</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA46">
+        <v>4106</v>
+      </c>
+      <c r="AB46">
+        <v>4402</v>
+      </c>
+      <c r="AC46">
+        <v>4299</v>
+      </c>
+      <c r="AD46">
+        <v>4291</v>
+      </c>
+      <c r="AE46">
+        <v>4357</v>
+      </c>
+      <c r="AF46">
+        <v>4382</v>
+      </c>
+      <c r="AG46">
+        <f t="shared" si="3"/>
+        <v>25837</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>450.00116700000001</v>
       </c>
@@ -31394,8 +33913,30 @@
         <f t="shared" si="2"/>
         <v>37101</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA47">
+        <v>4285</v>
+      </c>
+      <c r="AB47">
+        <v>4543</v>
+      </c>
+      <c r="AC47">
+        <v>3967</v>
+      </c>
+      <c r="AD47">
+        <v>4314</v>
+      </c>
+      <c r="AE47">
+        <v>4167</v>
+      </c>
+      <c r="AF47">
+        <v>3832</v>
+      </c>
+      <c r="AG47">
+        <f t="shared" si="3"/>
+        <v>25108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>460.00106399999999</v>
       </c>
@@ -31447,8 +33988,30 @@
         <f t="shared" si="2"/>
         <v>44559</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA48">
+        <v>3717</v>
+      </c>
+      <c r="AB48">
+        <v>3583</v>
+      </c>
+      <c r="AC48">
+        <v>3493</v>
+      </c>
+      <c r="AD48">
+        <v>3557</v>
+      </c>
+      <c r="AE48">
+        <v>3752</v>
+      </c>
+      <c r="AF48">
+        <v>3738</v>
+      </c>
+      <c r="AG48">
+        <f t="shared" si="3"/>
+        <v>21840</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>470.00101699999999</v>
       </c>
@@ -31500,8 +34063,30 @@
         <f t="shared" si="2"/>
         <v>41277</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA49">
+        <v>3707</v>
+      </c>
+      <c r="AB49">
+        <v>3988</v>
+      </c>
+      <c r="AC49">
+        <v>3859</v>
+      </c>
+      <c r="AD49">
+        <v>4000</v>
+      </c>
+      <c r="AE49">
+        <v>3976</v>
+      </c>
+      <c r="AF49">
+        <v>4173</v>
+      </c>
+      <c r="AG49">
+        <f t="shared" si="3"/>
+        <v>23703</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>480.00190500000002</v>
       </c>
@@ -31553,8 +34138,30 @@
         <f t="shared" si="2"/>
         <v>35034</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA50">
+        <v>4185</v>
+      </c>
+      <c r="AB50">
+        <v>4222</v>
+      </c>
+      <c r="AC50">
+        <v>4075</v>
+      </c>
+      <c r="AD50">
+        <v>4336</v>
+      </c>
+      <c r="AE50">
+        <v>4016</v>
+      </c>
+      <c r="AF50">
+        <v>4012</v>
+      </c>
+      <c r="AG50">
+        <f t="shared" si="3"/>
+        <v>24846</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>490.00190199999997</v>
       </c>
@@ -31606,8 +34213,30 @@
         <f t="shared" si="2"/>
         <v>43511</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA51">
+        <v>3716</v>
+      </c>
+      <c r="AB51">
+        <v>3729</v>
+      </c>
+      <c r="AC51">
+        <v>3331</v>
+      </c>
+      <c r="AD51">
+        <v>3440</v>
+      </c>
+      <c r="AE51">
+        <v>3524</v>
+      </c>
+      <c r="AF51">
+        <v>3724</v>
+      </c>
+      <c r="AG51">
+        <f t="shared" si="3"/>
+        <v>21464</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>500.00191100000001</v>
       </c>
@@ -31659,8 +34288,30 @@
         <f t="shared" si="2"/>
         <v>41650</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA52">
+        <v>3386</v>
+      </c>
+      <c r="AB52">
+        <v>3365</v>
+      </c>
+      <c r="AC52">
+        <v>3514</v>
+      </c>
+      <c r="AD52">
+        <v>3373</v>
+      </c>
+      <c r="AE52">
+        <v>3592</v>
+      </c>
+      <c r="AF52">
+        <v>3535</v>
+      </c>
+      <c r="AG52">
+        <f t="shared" si="3"/>
+        <v>20765</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>510.00190600000002</v>
       </c>
@@ -31712,8 +34363,30 @@
         <f t="shared" si="2"/>
         <v>33222</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA53">
+        <v>4102</v>
+      </c>
+      <c r="AB53">
+        <v>4203</v>
+      </c>
+      <c r="AC53">
+        <v>4329</v>
+      </c>
+      <c r="AD53">
+        <v>4230</v>
+      </c>
+      <c r="AE53">
+        <v>4300</v>
+      </c>
+      <c r="AF53">
+        <v>4271</v>
+      </c>
+      <c r="AG53">
+        <f t="shared" si="3"/>
+        <v>25435</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>520.00193999999999</v>
       </c>
@@ -31765,8 +34438,30 @@
         <f t="shared" si="2"/>
         <v>42879</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA54">
+        <v>3849</v>
+      </c>
+      <c r="AB54">
+        <v>4014</v>
+      </c>
+      <c r="AC54">
+        <v>3725</v>
+      </c>
+      <c r="AD54">
+        <v>3781</v>
+      </c>
+      <c r="AE54">
+        <v>3851</v>
+      </c>
+      <c r="AF54">
+        <v>3937</v>
+      </c>
+      <c r="AG54">
+        <f t="shared" si="3"/>
+        <v>23157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>530.00196200000005</v>
       </c>
@@ -31818,8 +34513,30 @@
         <f t="shared" si="2"/>
         <v>43338</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA55">
+        <v>3846</v>
+      </c>
+      <c r="AB55">
+        <v>3994</v>
+      </c>
+      <c r="AC55">
+        <v>3919</v>
+      </c>
+      <c r="AD55">
+        <v>3790</v>
+      </c>
+      <c r="AE55">
+        <v>3896</v>
+      </c>
+      <c r="AF55">
+        <v>4170</v>
+      </c>
+      <c r="AG55">
+        <f t="shared" si="3"/>
+        <v>23615</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>540.00191199999995</v>
       </c>
@@ -31871,8 +34588,30 @@
         <f t="shared" si="2"/>
         <v>33194</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA56">
+        <v>4195</v>
+      </c>
+      <c r="AB56">
+        <v>4277</v>
+      </c>
+      <c r="AC56">
+        <v>4218</v>
+      </c>
+      <c r="AD56">
+        <v>4117</v>
+      </c>
+      <c r="AE56">
+        <v>4224</v>
+      </c>
+      <c r="AF56">
+        <v>4137</v>
+      </c>
+      <c r="AG56">
+        <f t="shared" si="3"/>
+        <v>25168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>550.00200800000005</v>
       </c>
@@ -31924,8 +34663,30 @@
         <f t="shared" si="2"/>
         <v>43290</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA57">
+        <v>3856</v>
+      </c>
+      <c r="AB57">
+        <v>3853</v>
+      </c>
+      <c r="AC57">
+        <v>3377</v>
+      </c>
+      <c r="AD57">
+        <v>3757</v>
+      </c>
+      <c r="AE57">
+        <v>3869</v>
+      </c>
+      <c r="AF57">
+        <v>3505</v>
+      </c>
+      <c r="AG57">
+        <f t="shared" si="3"/>
+        <v>22217</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>560.00196300000005</v>
       </c>
@@ -31977,8 +34738,30 @@
         <f t="shared" si="2"/>
         <v>45053</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA58">
+        <v>3542</v>
+      </c>
+      <c r="AB58">
+        <v>3677</v>
+      </c>
+      <c r="AC58">
+        <v>3749</v>
+      </c>
+      <c r="AD58">
+        <v>3522</v>
+      </c>
+      <c r="AE58">
+        <v>3762</v>
+      </c>
+      <c r="AF58">
+        <v>3433</v>
+      </c>
+      <c r="AG58">
+        <f t="shared" si="3"/>
+        <v>21685</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>570.00192700000002</v>
       </c>
@@ -32030,8 +34813,30 @@
         <f t="shared" si="2"/>
         <v>35999</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA59">
+        <v>3630</v>
+      </c>
+      <c r="AB59">
+        <v>3599</v>
+      </c>
+      <c r="AC59">
+        <v>3745</v>
+      </c>
+      <c r="AD59">
+        <v>3826</v>
+      </c>
+      <c r="AE59">
+        <v>3812</v>
+      </c>
+      <c r="AF59">
+        <v>4213</v>
+      </c>
+      <c r="AG59">
+        <f t="shared" si="3"/>
+        <v>22825</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>580.00196400000004</v>
       </c>
@@ -32083,8 +34888,30 @@
         <f t="shared" si="2"/>
         <v>41258</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA60">
+        <v>3933</v>
+      </c>
+      <c r="AB60">
+        <v>3754</v>
+      </c>
+      <c r="AC60">
+        <v>3986</v>
+      </c>
+      <c r="AD60">
+        <v>3890</v>
+      </c>
+      <c r="AE60">
+        <v>3576</v>
+      </c>
+      <c r="AF60">
+        <v>3625</v>
+      </c>
+      <c r="AG60">
+        <f t="shared" si="3"/>
+        <v>22764</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>590.00193000000002</v>
       </c>
@@ -32136,8 +34963,30 @@
         <f t="shared" si="2"/>
         <v>43032</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA61">
+        <v>3412</v>
+      </c>
+      <c r="AB61">
+        <v>3769</v>
+      </c>
+      <c r="AC61">
+        <v>3832</v>
+      </c>
+      <c r="AD61">
+        <v>4057</v>
+      </c>
+      <c r="AE61">
+        <v>3861</v>
+      </c>
+      <c r="AF61">
+        <v>3539</v>
+      </c>
+      <c r="AG61">
+        <f t="shared" si="3"/>
+        <v>22470</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>600.00195599999995</v>
       </c>
@@ -32189,8 +35038,30 @@
         <f t="shared" si="2"/>
         <v>38178</v>
       </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA62">
+        <v>4182</v>
+      </c>
+      <c r="AB62">
+        <v>3674</v>
+      </c>
+      <c r="AC62">
+        <v>3651</v>
+      </c>
+      <c r="AD62">
+        <v>4182</v>
+      </c>
+      <c r="AE62">
+        <v>3830</v>
+      </c>
+      <c r="AF62">
+        <v>4062</v>
+      </c>
+      <c r="AG62">
+        <f t="shared" si="3"/>
+        <v>23581</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>601.04015600000002</v>
       </c>
@@ -32241,6 +35112,28 @@
       <c r="X63">
         <f t="shared" si="2"/>
         <v>3890</v>
+      </c>
+      <c r="AA63">
+        <v>463</v>
+      </c>
+      <c r="AB63">
+        <v>547</v>
+      </c>
+      <c r="AC63">
+        <v>612</v>
+      </c>
+      <c r="AD63">
+        <v>449</v>
+      </c>
+      <c r="AE63">
+        <v>647</v>
+      </c>
+      <c r="AF63">
+        <v>1289</v>
+      </c>
+      <c r="AG63">
+        <f t="shared" si="3"/>
+        <v>4007</v>
       </c>
     </row>
   </sheetData>
@@ -42315,8 +45208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F14" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4:S64"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44970,6 +47863,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>